--- a/data/case1/9/V1_14.xlsx
+++ b/data/case1/9/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999144737495</v>
+        <v>0.99999999147246577</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99845116824867874</v>
+        <v>0.99813929396037304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99741589445638446</v>
+        <v>0.9963348371025631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0025325520555575</v>
+        <v>1.0008926035225949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99458133349267164</v>
+        <v>0.99236616626994878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97658392734999944</v>
+        <v>0.97196812360057039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96998964595380233</v>
+        <v>0.97268710559477478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96086171743695603</v>
+        <v>0.96914340740997562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94911901741821403</v>
+        <v>0.96668249340082113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93829258526873893</v>
+        <v>0.96516496445557876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93669666741884505</v>
+        <v>0.96508571878414351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93391717099541172</v>
+        <v>0.96519132663599361</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9226311873147548</v>
+        <v>0.94753227584138533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91846412233665009</v>
+        <v>0.94057395315195969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9158727906614903</v>
+        <v>0.93536037663740168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91336639505753459</v>
+        <v>0.92974834953210883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90965857558911556</v>
+        <v>0.91947536171702837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90854967807327902</v>
+        <v>0.9152947458756191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99585114038695033</v>
+        <v>0.99506382110156411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97500879771392102</v>
+        <v>0.97011268813115081</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97361032141671355</v>
+        <v>0.96316716833555405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97234581677542509</v>
+        <v>0.95161723522410024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.99038203820277904</v>
+        <v>0.98930091124916286</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97736211162596331</v>
+        <v>0.97628091515241011</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97090527973539886</v>
+        <v>0.96982407319404895</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.97621281661656101</v>
+        <v>0.96831598768369709</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.97465205652199471</v>
+        <v>0.96347365425195297</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.96704988357356747</v>
+        <v>0.94201468175992531</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96211366011561095</v>
+        <v>0.92674851942911696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96081647954205818</v>
+        <v>0.92017923963447923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.96628674114989255</v>
+        <v>0.91252640847662225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.96914504981711136</v>
+        <v>0.91084715798933291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.96862505017772915</v>
+        <v>0.91032716363825861</v>
       </c>
     </row>
   </sheetData>
